--- a/EFS/cap08-BasesDeDatos/BD1_companies_150324.xlsx
+++ b/EFS/cap08-BasesDeDatos/BD1_companies_150324.xlsx
@@ -94,9 +94,6 @@
     <t>Company Status</t>
   </si>
   <si>
-    <t>Level of Activity</t>
-  </si>
-  <si>
     <t>*</t>
   </si>
   <si>
@@ -159,9 +156,6 @@
   </si>
   <si>
     <t xml:space="preserve">Listado </t>
-  </si>
-  <si>
-    <t>3 valores (1. INTERNAL SUBSIDIARY, INTERNAL BUSINESS UNIT, EXTERNAL(default)</t>
   </si>
   <si>
     <t>Matriz</t>
@@ -342,6 +336,12 @@
   </si>
   <si>
     <t>NIF/VAT</t>
+  </si>
+  <si>
+    <t>3 valores (INTERNAL SUBSIDIARY, INTERNAL BUSINESS UNIT, EXTERNAL(default)</t>
+  </si>
+  <si>
+    <t>Activity Level</t>
   </si>
 </sst>
 </file>
@@ -718,6 +718,15 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -741,15 +750,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1059,8 +1059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1078,34 +1078,34 @@
   <sheetData>
     <row r="1" spans="1:7" s="12" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B1" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G1" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="36"/>
+      <c r="B2" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="22" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
-      <c r="B2" s="45" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>30</v>
       </c>
       <c r="D2" s="22">
         <v>255</v>
@@ -1117,146 +1117,146 @@
     <row r="3" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" s="3">
         <v>8</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" s="3">
         <v>255</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="51" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="18" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="18" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="18" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="18" t="s">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="F9" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="51" x14ac:dyDescent="0.25">
@@ -1265,40 +1265,40 @@
         <v>10</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="18" t="s">
         <v>0</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" s="3">
         <v>3</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
@@ -1307,17 +1307,17 @@
         <v>1</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
@@ -1326,70 +1326,70 @@
         <v>2</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" s="3">
         <v>3</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D14" s="3">
         <v>50</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="18" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D15" s="3">
         <v>200</v>
       </c>
       <c r="E15" s="19"/>
       <c r="F15" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="18" t="s">
         <v>4</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D16" s="3">
         <v>255</v>
@@ -1400,13 +1400,13 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D17" s="3">
         <v>150</v>
@@ -1418,10 +1418,10 @@
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D18" s="3">
         <v>150</v>
@@ -1432,13 +1432,13 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D19" s="3">
         <v>50</v>
@@ -1449,59 +1449,59 @@
     </row>
     <row r="20" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B20" s="18" t="s">
         <v>6</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D21" s="3">
         <v>10</v>
       </c>
-      <c r="E21" s="37" t="s">
-        <v>85</v>
+      <c r="E21" s="40" t="s">
+        <v>83</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D22" s="3">
         <v>10</v>
       </c>
-      <c r="E22" s="38"/>
+      <c r="E22" s="41"/>
       <c r="F22" s="3"/>
       <c r="G22" s="20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1510,17 +1510,17 @@
         <v>7</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D23" s="3">
         <v>255</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G23" s="21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
@@ -1529,70 +1529,70 @@
         <v>8</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D25" s="3">
         <v>10.199999999999999</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" s="18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D26" s="3">
         <v>10.199999999999999</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G26" s="11"/>
     </row>
     <row r="27" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D27" s="3">
         <v>10.199999999999999</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1600,20 +1600,20 @@
       <c r="C28" s="17"/>
     </row>
     <row r="29" spans="1:8" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="B29" s="36"/>
+      <c r="A29" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="39"/>
       <c r="D29" s="2"/>
       <c r="G29" s="8"/>
       <c r="H29" s="4"/>
     </row>
     <row r="30" spans="1:8" s="5" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="10" t="s">
         <v>14</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>15</v>
       </c>
       <c r="D30" s="2"/>
       <c r="G30" s="8"/>
@@ -1621,10 +1621,10 @@
     </row>
     <row r="31" spans="1:8" s="5" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A31" s="33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D31" s="2"/>
       <c r="G31" s="8"/>
@@ -1650,13 +1650,13 @@
       <c r="H34" s="32"/>
     </row>
     <row r="35" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="39"/>
-      <c r="F35" s="39"/>
+      <c r="B35" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
       <c r="H35" s="32"/>
     </row>
     <row r="36" spans="2:8" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1664,27 +1664,27 @@
         <v>0</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="D36" s="40" t="s">
-        <v>88</v>
-      </c>
-      <c r="E36" s="40"/>
-      <c r="F36" s="40"/>
+        <v>85</v>
+      </c>
+      <c r="D36" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
       <c r="H36" s="32"/>
     </row>
     <row r="37" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="28" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="D37" s="41" t="s">
-        <v>89</v>
-      </c>
-      <c r="E37" s="42"/>
-      <c r="F37" s="43"/>
+        <v>82</v>
+      </c>
+      <c r="D37" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="E37" s="45"/>
+      <c r="F37" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="5">
